--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2857.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2857.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.187400200368145</v>
+        <v>1.341583490371704</v>
       </c>
       <c r="B1">
-        <v>2.280809844221715</v>
+        <v>1.419857621192932</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.863321304321289</v>
       </c>
       <c r="D1">
-        <v>2.33012592511301</v>
+        <v>3.290687561035156</v>
       </c>
       <c r="E1">
-        <v>1.215902499163366</v>
+        <v>1.040981531143188</v>
       </c>
     </row>
   </sheetData>
